--- a/4th Feb Batch/New Microsoft Excel Worksheet.xlsx
+++ b/4th Feb Batch/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\4th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA54055A-EF22-45EC-BA17-081E1ECED1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435F5FD1-72F9-4FB3-95E0-94D256B11279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="22">
   <si>
     <t>Data WareHouse</t>
   </si>
@@ -46,6 +46,51 @@
   </si>
   <si>
     <t>20 TB</t>
+  </si>
+  <si>
+    <t>Bank A</t>
+  </si>
+  <si>
+    <t>Bank B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank C</t>
+  </si>
+  <si>
+    <t>initial amount</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>half yearly interest</t>
+  </si>
+  <si>
+    <t>quarterly interest</t>
+  </si>
+  <si>
+    <t>secondaly  ouput</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>minutely</t>
+  </si>
+  <si>
+    <t>secondly</t>
   </si>
 </sst>
 </file>
@@ -84,10 +129,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,26 +414,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -399,9 +447,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -409,9 +457,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -419,9 +467,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -429,9 +477,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
@@ -439,9 +487,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
@@ -449,9 +497,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
@@ -459,9 +507,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
@@ -469,9 +517,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
@@ -479,9 +527,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
@@ -489,9 +537,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
@@ -499,9 +547,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
@@ -509,9 +557,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
@@ -519,9 +567,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
@@ -529,37 +577,37 @@
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M17" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P17" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S17" t="s">
@@ -567,37 +615,37 @@
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J18" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M18" t="s">
         <v>6</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P18" t="s">
         <v>6</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S18" t="s">
@@ -605,37 +653,37 @@
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J19" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M19" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P19" t="s">
         <v>6</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S19" t="s">
@@ -643,37 +691,37 @@
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J20" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M20" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P20" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S20" t="s">
@@ -681,37 +729,37 @@
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J21" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M21" t="s">
         <v>6</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P21" t="s">
         <v>6</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S21" t="s">
@@ -719,37 +767,37 @@
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J22" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M22" t="s">
         <v>6</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P22" t="s">
         <v>6</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S22" t="s">
@@ -757,37 +805,37 @@
       </c>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J23" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M23" t="s">
         <v>6</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P23" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S23" t="s">
@@ -795,37 +843,37 @@
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J24" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M24" t="s">
         <v>6</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P24" t="s">
         <v>6</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S24" t="s">
@@ -833,37 +881,37 @@
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J25" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M25" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P25" t="s">
         <v>6</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S25" t="s">
@@ -871,37 +919,37 @@
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J26" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M26" t="s">
         <v>6</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P26" t="s">
         <v>6</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S26" t="s">
@@ -909,41 +957,147 @@
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J27" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M27" t="s">
         <v>6</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P27" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S27" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0.5</v>
+      </c>
+      <c r="K37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2.25</v>
+      </c>
+      <c r="D39">
+        <v>2.44</v>
+      </c>
+      <c r="E39">
+        <v>2.718</v>
+      </c>
+      <c r="I39">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
